--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/00. Bases/pico_marcacion_ecuador.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/00. Bases/pico_marcacion_ecuador.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-25 01:49:39.000</t>
+          <t>2025-04-06 02:52:19.000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ℹ️ Los clubes siguen buscando alternativas ante la crisis del Atahualpa. Vinotinto jugará contra Aucas en el Estadio Banco Guayaquil y Universidad Católica se mudará a Ponceano para recibir a Independiente del Valle. \n#ligaproecuabet https://t.co/3aEBx3lASv</t>
+          <t>@chuldesao el mío lo va liderando el veneco de alleh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ℹ️ Los clubes siguen buscando alternativas ante la crisis del Atahualpa. Vinotinto jugará contra Aucas en el Estadio Banco Guayaquil y Universidad Católica se mudará a Ponceano para recibir a Independiente del Valle. #ligaproecuabet https://t.co/3aEBx3lASv</t>
+          <t>@chuldesao el mío lo va liderando el veneco de alleh</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -517,28 +517,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://t.co/3aEBx3lASv</t>
-        </is>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-25 01:16:17.000</t>
+          <t>2025-04-06 01:10:09.000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INFLUENCER GRABÓ SU MU3RTE ☠️🚨\n\nGabriel Jesús Sarmiento, un influencer venezolano, fue as3sinado mientras transmitía en directo en TikTok. El joven denunciaba públicamente a estructuras criminales.\n\n📻 90.9 FM | https://t.co/EoKJ2r8PUX 📺\n\n#unleacks #trendearagua #trendelllano #venezuela #sebin #maracay #aragua #influencer</t>
+          <t>Oye @grok, Erik prince se benefició del dinero de los venezolanos con la “iniciativa” Ya casi Venezuela???</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INFLUENCER GRABÓ SU MU3RTE ☠️🚨 Gabriel Jesús Sarmiento, un influencer venezolano, fue as3sinado mientras transmitía en directo en TikTok. El joven denunciaba públicamente a estructuras criminales. 📻 90.9 FM | https://t.co/EoKJ2r8PUX 📺 #unleacks #trendearagua #trendelllano #venezuela #sebin #maracay #aragua #influencer</t>
+          <t>Oye @grok, Erik prince se benefició del dinero de los venezolanos con la “iniciativa” Ya casi Venezuela???</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -554,31 +550,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://t.co/EoKJ2r8PUX</t>
-        </is>
-      </c>
+        <v>362473</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-25 01:14:02.000</t>
+          <t>2025-04-06 00:57:54.000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#SuperligaFemEc, #Fase1, Jornada 18, resultados.\n\nDragonas IDV 2 – 1 Barcelona\nLeones FC 1 – 4 Vinotinto\nEspuce 0 – 5 Club Ñañas\nEl Nacional 0 – 0 Dep. Ibarra.\nGuerreras Albas 2 – 1 U. Católica\nEléctricas CSE 0 – 0 Macará https://t.co/bnzHmLxYRw</t>
+          <t>#DefiendeTuVoto en Ecuador y Venezuela\n#ElCNEqueTenemos aquí y allá\n\nEn tocas partes se esconden actas: aquí, en Ecuador, las de cantidad de sufragantes y allá la de resultados\n\nLa confesión de este consejero del CNE venezolano asusta.\n\n "Pagarán su culpa los traidores" matata hakuna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>#SuperligaFemEc, #Fase1, Jornada 18, resultados. Dragonas IDV 2 – 1 Barcelona Leones FC 1 – 4 Vinotinto Espuce 0 – 5 Club Ñañas El Nacional 0 – 0 Dep. Ibarra. Guerreras Albas 2 – 1 U. Católica Eléctricas CSE 0 – 0 Macará https://t.co/bnzHmLxYRw</t>
+          <t>#DefiendeTuVoto en Ecuador y Venezuela #ElCNEqueTenemos aquí y allá En tocas partes se esconden actas: aquí, en Ecuador, las de cantidad de sufragantes y allá la de resultados La confesión de este consejero del CNE venezolano asusta. "Pagarán su culpa los traidores" matata hakuna</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -594,31 +586,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.3</v>
+        <v>61.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://t.co/bnzHmLxYRw</t>
-        </is>
-      </c>
+        <v>54393</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-24 23:26:48.000</t>
+          <t>2025-04-06 00:43:54.000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asesinaron a un influencer venezolano durante una transmisión en vivo tras denunciar vínculos de policías con el Tren de Aragua👉https://t.co/Pe9ErYdcfq https://t.co/7rGbrrfUzr</t>
+          <t>Resumen Venezuela vs Uruguay #sudamericanosub17 https://t.co/eXv5LA81rW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asesinaron a un influencer venezolano durante una transmisión en vivo tras denunciar vínculos de policías con el Tren de Aragua👉https://t.co/Pe9ErYdcfq https://t.co/7rGbrrfUzr</t>
+          <t>Resumen Venezuela vs Uruguay #sudamericanosub17 https://t.co/eXv5LA81rW</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -634,31 +622,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>36.5</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2837</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://t.co/Pe9ErYdcfq</t>
+          <t>https://t.co/eXv5LA81rW</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-24 22:43:05.000</t>
+          <t>2025-04-05 22:38:30.000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10 dólares una profilaxis?\nQué usan taladro, lija y cloro?\nContratan venezolanos?\nAsí funciona el capitalismo ✨</t>
+          <t>¡Comienza el segundo tiempo en Machala! #OrenseSC 0-0 #VinotintoFC | Fecha 7 | #LigaPro\n\nEN VIVO: https://t.co/th7ezamwdB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10 dólares una profilaxis? Qué usan taladro, lija y cloro? Contratan venezolanos? Así funciona el capitalismo ✨</t>
+          <t>¡Comienza el segundo tiempo en Machala! #OrenseSC 0-0 #VinotintoFC | Fecha 7 | #LigaPro EN VIVO: https://t.co/th7ezamwdB</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -674,27 +662,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.3</v>
+        <v>62.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>400693</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://t.co/th7ezamwdB</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-24 21:54:39.000</t>
+          <t>2025-04-05 22:31:43.000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Un estremecedor crimen ha conmocionado a Venezuela luego del asesinato de Gabriel Jesús Sarmiento, un joven creador de contenido de 25 años, quien fue atacado a tiros mientras realizaba una transmisión en directo a través de la red social TikTok. https://t.co/7UNrND2WJV https://t.co/hHeztqmS0a</t>
+          <t>¡Al descanso en Machala! #OrenseSC 0-0 #VinotintoFC | Fecha 7 | #LigaPro\n\nEN VIVO: https://t.co/th7ezamwdB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Un estremecedor crimen ha conmocionado a Venezuela luego del asesinato de Gabriel Jesús Sarmiento, un joven creador de contenido de 25 años, quien fue atacado a tiros mientras realizaba una transmisión en directo a través de la red social TikTok. https://t.co/7UNrND2WJV https://t.co/hHeztqmS0a</t>
+          <t>¡Al descanso en Machala! #OrenseSC 0-0 #VinotintoFC | Fecha 7 | #LigaPro EN VIVO: https://t.co/th7ezamwdB</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -710,31 +702,31 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>62.8</v>
       </c>
       <c r="I7" t="n">
-        <v>507</v>
+        <v>400693</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://t.co/7UNrND2WJV</t>
+          <t>https://t.co/th7ezamwdB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-24 21:21:16.000</t>
+          <t>2025-04-05 21:30:32.000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Por el #DíadelRefugiado en #Montúfar, reunimos a 18 madres venezolanas, colombianas y ecuatorianas en un encuentro deportivo con kicking ball, promoviendo conexión, bienestar y uso positivo del tiempo libre. 🤝 https://t.co/3zpZW8kcsp</t>
+          <t>Sigue el minuto a minuto del encuentro entre #OrenseSC y #VinotintoFC por la fecha 7 de la #LigaPro 🇪🇨⚽\nhttps://t.co/7OdGXHJe3w</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Por el #DíadelRefugiado en #Montúfar, reunimos a 18 madres venezolanas, colombianas y ecuatorianas en un encuentro deportivo con kicking ball, promoviendo conexión, bienestar y uso positivo del tiempo libre. 🤝 https://t.co/3zpZW8kcsp</t>
+          <t>Sigue el minuto a minuto del encuentro entre #OrenseSC y #VinotintoFC por la fecha 7 de la #LigaPro 🇪🇨⚽ https://t.co/7OdGXHJe3w</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -750,31 +742,31 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://t.co/3zpZW8kcsp</t>
+          <t>https://t.co/7OdGXHJe3w</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-24 19:20:04.000</t>
+          <t>2025-04-05 21:26:59.000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>🔵 Gabriel Jesús Sarmiento, tiktoker venezolano de 25 años, fue asesinado durante una transmisión en vivo desde su casa. Denunciaba a bandas criminales y policías corruptos. Su madre resultó herida.\n#GabrielSarmiento #Venezuela #TikTok https://t.co/z1EEE2jAXI</t>
+          <t>Testimonio cinematográfico imperecedero y seminal del cine venezolano que trascendió fronteras, fascinó a la crítica internacional y que sigue sorprendiendo a quienes ahora la descubren.\n\nHablaremos sobre ella en unos minutos en nuestra sesión vespertina de @butacaparadiso https://t.co/kbsAsp3Tzm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>🔵 Gabriel Jesús Sarmiento, tiktoker venezolano de 25 años, fue asesinado durante una transmisión en vivo desde su casa. Denunciaba a bandas criminales y policías corruptos. Su madre resultó herida. #GabrielSarmiento #Venezuela #TikTok https://t.co/z1EEE2jAXI</t>
+          <t>Testimonio cinematográfico imperecedero y seminal del cine venezolano que trascendió fronteras, fascinó a la crítica internacional y que sigue sorprendiendo a quienes ahora la descubren. Hablaremos sobre ella en unos minutos en nuestra sesión vespertina de @butacaparadiso https://t.co/kbsAsp3Tzm</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -790,31 +782,31 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>69.5</v>
+        <v>18.6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4488</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://t.co/z1EEE2jAXI</t>
+          <t>https://t.co/kbsAsp3Tzm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-24 18:18:47.000</t>
+          <t>2025-04-05 20:45:35.000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#Influencer #venezolano que denunciaba al Tren de Aragua fue asesinado durante transmisión en vivo https://t.co/TRDdJtInjR https://t.co/s7RkrK4DRZ</t>
+          <t>Que payaso es ese Noboa al traer un tipo que no más va a venir a hacer show aquí en Ecuador así como lo hizo con el movimiento “ Ya Casi Venezuela” donde los dejaron así a los venezolanos 🤡🤡 JAJAJA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>#Influencer #venezolano que denunciaba al Tren de Aragua fue asesinado durante transmisión en vivo https://t.co/TRDdJtInjR https://t.co/s7RkrK4DRZ</t>
+          <t>Que payaso es ese Noboa al traer un tipo que no más va a venir a hacer show aquí en Ecuador así como lo hizo con el movimiento “ Ya Casi Venezuela” donde los dejaron así a los venezolanos 🤡🤡 JAJAJA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -830,31 +822,27 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>82.2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9151</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://t.co/TRDdJtInjR</t>
-        </is>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-24 17:50:14.000</t>
+          <t>2025-04-05 20:39:59.000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El partido entre Vinotinto vs #Aucas del próximo día lunes por la fecha 18 se jugará en el estadio Banco Guayaquil. https://t.co/Gxt7V56c9Y</t>
+          <t>Conocer la realidad venezolana es entender cómo toda la estructura social y económica se ha devaluado junto con su moneda. Allá no viven, sobreviven. \nSi una sociedad no puede alimentarse, no puede prevenir enfermedades. Una sociedad mal alimentada no puede progresar.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El partido entre Vinotinto vs #Aucas del próximo día lunes por la fecha 18 se jugará en el estadio Banco Guayaquil. https://t.co/Gxt7V56c9Y</t>
+          <t>Conocer la realidad venezolana es entender cómo toda la estructura social y económica se ha devaluado junto con su moneda. Allá no viven, sobreviven. Si una sociedad no puede alimentarse, no puede prevenir enfermedades. Una sociedad mal alimentada no puede progresar.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -870,31 +858,27 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>396</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>https://t.co/Gxt7V56c9Y</t>
-        </is>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-24 17:15:45.000</t>
+          <t>2025-04-05 20:09:42.000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/MDgXFyFwNP https://t.co/uxoeE4XfQk</t>
+          <t>Yo no sabía que Erick Prince estafó a los venezolanos.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/MDgXFyFwNP https://t.co/uxoeE4XfQk</t>
+          <t>Yo no sabía que Erick Prince estafó a los venezolanos.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -910,31 +894,27 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>66.7</v>
+        <v>38.7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://t.co/MDgXFyFwNP</t>
-        </is>
-      </c>
+        <v>6211</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-24 17:15:30.000</t>
+          <t>2025-04-05 19:51:40.000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/F2oKqU9vW7 https://t.co/ar9QnyGfJL</t>
+          <t>Angie @Angie_skk  hermosa sólo por ella y por @ladydaisyrubia  mi deseo desenfrenado por las venezolanas se mantiene. Con mujeres como ellas si me casaría ❤️y si es con ambas mejor!!!!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/F2oKqU9vW7 https://t.co/ar9QnyGfJL</t>
+          <t>Angie @Angie_skk hermosa sólo por ella y por @ladydaisyrubia mi deseo desenfrenado por las venezolanas se mantiene. Con mujeres como ellas si me casaría ❤️y si es con ambas mejor!!!!</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -950,31 +930,27 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://t.co/F2oKqU9vW7</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-24 17:07:44.000</t>
+          <t>2025-04-05 17:26:46.000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Se cumplió la meta con Dios de la mano , fe y constancia 🙌🏼</t>
+          <t>Los venezolanos son re trap corta acá no los quieren xq les re cabe el descanso</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Se cumplió la meta con Dios de la mano , fe y constancia 🙌🏼</t>
+          <t>Los venezolanos son re trap corta acá no los quieren xq les re cabe el descanso</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -993,24 +969,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-24 16:48:41.000</t>
+          <t>2025-04-05 12:08:28.000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>La vivienda de una mujer de nacionalidad venezolana fue en blanco de dos atentados armados en menos de 5 horas, pues llegaron a disparar y según ella, la motivación sería porque se separó de su exconviviente.  👉https://t.co/mIFCiD5Pt0 https://t.co/S4oKKn2P9N</t>
+          <t>🤔 PIENSO!\nDebemos Darles "El ESPACIO" a Nuestros Hermanos #Venezolanos Radicados y  que Trabajan Legalmente  #Ecuador \nY Digan qué les Pasó con el #SocialismoEsMiseria \nEXPERIENCIA Mata RELATO..\n@DanielNoboaOk @ValenCenteno @aguschmer @JorgeChambaAs @Presidencia_Ec @NielsOlsenP https://t.co/uyNcTn0Nnn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>La vivienda de una mujer de nacionalidad venezolana fue en blanco de dos atentados armados en menos de 5 horas, pues llegaron a disparar y según ella, la motivación sería porque se separó de su exconviviente. 👉https://t.co/mIFCiD5Pt0 https://t.co/S4oKKn2P9N</t>
+          <t>🤔 PIENSO! Debemos Darles "El ESPACIO" a Nuestros Hermanos #Venezolanos Radicados y que Trabajan Legalmente #Ecuador Y Digan qué les Pasó con el #SocialismoEsMiseria EXPERIENCIA Mata RELATO.. @DanielNoboaOk @ValenCenteno @aguschmer @JorgeChambaAs @Presidencia_Ec @NielsOlsenP https://t.co/uyNcTn0Nnn</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1026,31 +1002,31 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>55.9</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73093</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://t.co/mIFCiD5Pt0</t>
+          <t>https://t.co/uyNcTn0Nnn</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-24 14:34:06.000</t>
+          <t>2025-04-05 06:15:43.000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#ATENCIÓN| Ocho mujeres venezolanas víctimas de explotación sexual lograron este lunes retornar a su país de origen con ayuda de las autoridades ecuatorianas y colombianas, tras haber sido rescatadas días atrás, según informó el Ministerio del Interior.\n\n🔴Para concretar el retorno a Venezuela de este grupo de mujeres, hubo coordinaciones entre la Dirección Contra la Trata de Personas y Tráfico Ilícito de Migrantes de la Policía Nacional de Ecuador y el Centro Operativo Anti-Trata (COAT) del Ministerio del Interior de Colombia.\n\nhttps://t.co/laG9v4h9xB</t>
+          <t>Que hacen metido en un space gobernado x un venezolano , ya dejen de rebajarse hasta los mods están x ha ya , Bogota , tus si no se quien más pero ya hpts aca nos vemos bonitos dejen a esos maricones ha ya 👍</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>#ATENCIÓN| Ocho mujeres venezolanas víctimas de explotación sexual lograron este lunes retornar a su país de origen con ayuda de las autoridades ecuatorianas y colombianas, tras haber sido rescatadas días atrás, según informó el Ministerio del Interior. 🔴Para concretar el retorno a Venezuela de este grupo de mujeres, hubo coordinaciones entre...</t>
+          <t>Que hacen metido en un space gobernado x un venezolano , ya dejen de rebajarse hasta los mods están x ha ya , Bogota , tus si no se quien más pero ya hpts aca nos vemos bonitos dejen a esos maricones ha ya 👍</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1066,31 +1042,27 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://t.co/laG9v4h9xB</t>
-        </is>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-24 14:21:23.000</t>
+          <t>2025-04-05 03:49:02.000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>En la grabación se ve como lo amenazan con armas de fuego\n https://t.co/tzRVZT8Ybm https://t.co/saslFZDTOJ</t>
+          <t>5 de abril,1969: fecha de fallecimiento de Rómulo Gallegos, novelista y político venezolano, presidente en 1948 (n. 1917).  f...Wikipedia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>En la grabación se ve como lo amenazan con armas de fuego https://t.co/tzRVZT8Ybm https://t.co/saslFZDTOJ</t>
+          <t>5 de abril,1969: fecha de fallecimiento de Rómulo Gallegos, novelista y político venezolano, presidente en 1948 (n. 1917). f...Wikipedia</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1106,31 +1078,27 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>79.8</v>
+        <v>38.7</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://t.co/tzRVZT8Ybm</t>
-        </is>
-      </c>
+        <v>20246</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-24 13:57:23.000</t>
+          <t>2025-04-05 03:44:32.000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hombres armados asesinan a un ‘tiktoker’ venezolano durante una transmisión. \nhttps://t.co/k9VVmKzlTI</t>
+          <t>Un operativo de control migratorio en Ibarra terminó con la deportación de cinco colombianos y el inicio del proceso de expulsión para cinco venezolanos.  https://t.co/tXvSxhUdVC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hombres armados asesinan a un ‘tiktoker’ venezolano durante una transmisión. https://t.co/k9VVmKzlTI</t>
+          <t>Un operativo de control migratorio en Ibarra terminó con la deportación de cinco colombianos y el inicio del proceso de expulsión para cinco venezolanos. https://t.co/tXvSxhUdVC</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1146,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>1269868</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://t.co/k9VVmKzlTI</t>
+          <t>https://t.co/tXvSxhUdVC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-24 13:25:34.000</t>
+          <t>2025-04-05 02:39:08.000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Un crimen en directo que conmocionó a la red: https://t.co/gabrawePcT https://t.co/6BnwxfaBQI</t>
+          <t>ESTOY LLORANDO CON LAS HUEVADAS QUE LE ENCAMAN LOS VENECOS AL CHAMO GONZÁLEZ EN TIK TOK 😭😭😭 https://t.co/54pcjtsUYx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Un crimen en directo que conmocionó a la red: https://t.co/gabrawePcT https://t.co/6BnwxfaBQI</t>
+          <t>ESTOY LLORANDO CON LAS HUEVADAS QUE LE ENCAMAN LOS VENECOS AL CHAMO GONZÁLEZ EN TIK TOK 😭😭😭 https://t.co/54pcjtsUYx</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1186,31 +1154,31 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>41.2</v>
       </c>
       <c r="I19" t="n">
-        <v>168</v>
+        <v>2124</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://t.co/gabrawePcT</t>
+          <t>https://t.co/54pcjtsUYx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-24 13:12:21.000</t>
+          <t>2025-04-05 01:27:04.000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/MDgXFyFwNP https://t.co/PQwv29ABGK</t>
+          <t>EE.UU. libera temporalmente a migrante venezolano que donará riñón a su hermano https://t.co/fJwukoRVeT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/MDgXFyFwNP https://t.co/PQwv29ABGK</t>
+          <t>EE.UU. libera temporalmente a migrante venezolano que donará riñón a su hermano https://t.co/fJwukoRVeT</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1226,31 +1194,31 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://t.co/MDgXFyFwNP</t>
+          <t>https://t.co/fJwukoRVeT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-24 13:12:06.000</t>
+          <t>2025-04-05 00:10:26.000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/F2oKqU8Y6z https://t.co/RacaxGkuwh</t>
+          <t>#EstadosUnidos libera temporalmente a #migrante venezolano que donará #riñón a su hermano\nhttps://t.co/mLbqG38YGh</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>#Video | Un influencer venezolano fue asesinado durante una transmisión en vivo desde su casa. #LéaloEnET:https://t.co/F2oKqU8Y6z https://t.co/RacaxGkuwh</t>
+          <t>#EstadosUnidos libera temporalmente a #migrante venezolano que donará #riñón a su hermano https://t.co/mLbqG38YGh</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1266,31 +1234,31 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>67.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2991929</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://t.co/F2oKqU8Y6z</t>
+          <t>https://t.co/mLbqG38YGh</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-24 06:29:00.000</t>
+          <t>2025-04-04 23:22:21.000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Se te acaban los lujos @nicmaduroguerra se te acaba vivir gratis del dinero del pueblo venezolano @psuv https://t.co/UrojVoW2w0</t>
+          <t>#ATENCIÓN  |  Cinco colombianos fueron deportados por evadir controles migratorios en #Ibarra\n\nDurante un operativo de Control de Migración en #Ibarra, en la provincia de #Imbabura, cinco migrantes colombianos fueron deportados por evadir controles establecidos en la Ley Orgánica de Movilidad Humana.\n\nAdemás, otros cinco ciudadanos de nacionalidad venezolana fueron notificados con el auto de inicio de deportación.\n\nMás detalles aquí👉 https://t.co/2TqOW8q00u\n\nÚnete a nuestro GRUPO DE WHATSAPP👇\nhttps://t.co/WDnS0yqGlb\n\n#DecanoDeLaPrensaManabita #100añosjuntoati</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Se te acaban los lujos @nicmaduroguerra se te acaba vivir gratis del dinero del pueblo venezolano @psuv https://t.co/UrojVoW2w0</t>
+          <t>#ATENCIÓN | Cinco colombianos fueron deportados por evadir controles migratorios en #Ibarra Durante un operativo de Control de Migración en #Ibarra, en la provincia de #Imbabura, cinco migrantes colombianos fueron deportados por evadir controles establecidos en la Ley Orgánica de Movilidad Humana. Además, otros cinco ciudadanos de nacionalidad v...</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1306,31 +1274,31 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="I22" t="n">
-        <v>235</v>
+        <v>19072</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://t.co/UrojVoW2w0</t>
+          <t>https://t.co/2TqOW8q00u\n\nÚnete</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-24 04:09:03.000</t>
+          <t>2025-04-04 22:46:07.000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/MNH8WhUPfZ</t>
+          <t>Durante un operativo de control migratorio en Ibarra, la Policía Nacional deportó a cinco migrantes colombianos por evadir los controles establecidos.\n\nAdemás, cinco venezolanos fueron notificados con inicio de proceso de deportación. \n\n#ControlMigratorio #PoliciaNacional https://t.co/XyJK1I7pyY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/MNH8WhUPfZ</t>
+          <t>Durante un operativo de control migratorio en Ibarra, la Policía Nacional deportó a cinco migrantes colombianos por evadir los controles establecidos. Además, cinco venezolanos fueron notificados con inicio de proceso de deportación. #ControlMigratorio #PoliciaNacional https://t.co/XyJK1I7pyY</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1346,31 +1314,31 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2978</v>
+        <v>709</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://t.co/MNH8WhUPfZ</t>
+          <t>https://t.co/XyJK1I7pyY</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-24 04:04:02.000</t>
+          <t>2025-04-04 21:06:24.000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/rO9rK9nsPi</t>
+          <t>La Golden Visa fracasó en España porque no fue un mecanismo muy utilizado por los extranjeros con recursos económicos para regularizar su situación en ese país. https://t.co/UAg7G88Cet https://t.co/pHC6hdXXyF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/rO9rK9nsPi</t>
+          <t>La Golden Visa fracasó en España porque no fue un mecanismo muy utilizado por los extranjeros con recursos económicos para regularizar su situación en ese país. https://t.co/UAg7G88Cet https://t.co/pHC6hdXXyF</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1386,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>27.6</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>6768</v>
+        <v>1269837</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://t.co/rO9rK9nsPi</t>
+          <t>https://t.co/UAg7G88Cet</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-24 03:59:12.000</t>
+          <t>2025-04-04 20:43:27.000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/hxWfFj1ufE</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/lOliMFIszM https://t.co/F2QeGKFL6x</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Macará vuelve por la senda con triunfo ante Vinotinto https://t.co/hxWfFj1ufE</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/lOliMFIszM https://t.co/F2QeGKFL6x</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1426,31 +1394,31 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.7</v>
+        <v>42.6</v>
       </c>
       <c r="I25" t="n">
-        <v>29522</v>
+        <v>33610</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://t.co/hxWfFj1ufE</t>
+          <t>https://t.co/lOliMFIszM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-24 03:57:35.000</t>
+          <t>2025-04-04 20:43:14.000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El tiktoker venezolano Gabriel Jesús Sarmiento fue asesinado durante un ataque armado en su casa, donde también resultó herida su madre.  https://t.co/HIVDnX664U https://t.co/5O7rht9KHY</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/Ajd4iogRZP https://t.co/7hMgT3C2K6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>El tiktoker venezolano Gabriel Jesús Sarmiento fue asesinado durante un ataque armado en su casa, donde también resultó herida su madre. https://t.co/HIVDnX664U https://t.co/5O7rht9KHY</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/Ajd4iogRZP https://t.co/7hMgT3C2K6</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1466,31 +1434,31 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>44.8</v>
+        <v>31.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1961</v>
+        <v>10015</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://t.co/HIVDnX664U</t>
+          <t>https://t.co/Ajd4iogRZP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-24 03:52:03.000</t>
+          <t>2025-04-04 20:41:30.000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ufff\nZorrita veneca pack 👌🥵 https://t.co/EK00C37Vk2</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/9kuq4YlsQx https://t.co/fYcsHJNrZy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ufff Zorrita veneca pack 👌🥵 https://t.co/EK00C37Vk2</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/9kuq4YlsQx https://t.co/fYcsHJNrZy</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1506,31 +1474,31 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>11.1</v>
+        <v>44.1</v>
       </c>
       <c r="I27" t="n">
-        <v>89</v>
+        <v>36962</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://t.co/EK00C37Vk2</t>
+          <t>https://t.co/9kuq4YlsQx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-24 03:45:13.000</t>
+          <t>2025-04-04 20:40:22.000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>🚨| URGENTE: El influencer venezolano Gabriel Sarmiento que denunciaba a bandas criminales El Tren de Aragua, el Tren del Llano y a funcionarios policiales  corruptos en Venezuela, fue ASESINADO mientras hacía un live de Tik Tok en Maracay https://t.co/krMdX0y2vc</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/nUbWqDPXu0 https://t.co/OExeeUPnLY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>🚨| URGENTE: El influencer venezolano Gabriel Sarmiento que denunciaba a bandas criminales El Tren de Aragua, el Tren del Llano y a funcionarios policiales corruptos en Venezuela, fue ASESINADO mientras hacía un live de Tik Tok en Maracay https://t.co/krMdX0y2vc</t>
+          <t>#Ecuador | Andry José Hernández Romero, maquillador profesional, fue enviado por error al Cecot, cárc€l de máxima seguridad de Nayib Bukele ► https://t.co/nUbWqDPXu0 https://t.co/OExeeUPnLY</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1546,31 +1514,31 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="I28" t="n">
-        <v>978</v>
+        <v>207312</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://t.co/krMdX0y2vc</t>
+          <t>https://t.co/nUbWqDPXu0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-24 03:33:43.000</t>
+          <t>2025-04-04 20:21:03.000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas, víctimas de explotación sexual en Ecuador, regresaron este lunes a su país de origen con el apoyo de autoridades ecuatorianas y colombianas, tras haber sido liberadas días atrás. Esto se sabe al respecto ▶️ https://t.co/e4VYx9sL8w https://t.co/nbXWSgoG9E</t>
+          <t>Seis personas fueron asesinadas en menos de diez horas este 4 de abril en El Oro, incluyendo un empresario extorsionado, un venezolano, un padre y su hijo, y dos jóvenes en El Guabo.\n\nMás información: https://t.co/qPpRrZ0Iih https://t.co/qHuhOKxRVQ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas, víctimas de explotación sexual en Ecuador, regresaron este lunes a su país de origen con el apoyo de autoridades ecuatorianas y colombianas, tras haber sido liberadas días atrás. Esto se sabe al respecto ▶️ https://t.co/e4VYx9sL8w https://t.co/nbXWSgoG9E</t>
+          <t>Seis personas fueron asesinadas en menos de diez horas este 4 de abril en El Oro, incluyendo un empresario extorsionado, un venezolano, un padre y su hijo, y dos jóvenes en El Guabo. Más información: https://t.co/qPpRrZ0Iih https://t.co/qHuhOKxRVQ</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1586,31 +1554,31 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>68.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>809985</v>
+        <v>1212816</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://t.co/e4VYx9sL8w</t>
+          <t>https://t.co/qPpRrZ0Iih</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-24 03:15:59.000</t>
+          <t>2025-04-04 20:12:19.000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El tiktoker venezolano Gabriel Jesús Sarmiento fue asesinado durante un ataque armado en su casa, donde también resultó herida su madre.  https://t.co/qFNXsMLxZG https://t.co/YbtlMCpjEf</t>
+          <t>Esto somos los Venezolanos! \n🇻🇪🩵 https://t.co/lIF9UHXqOC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>El tiktoker venezolano Gabriel Jesús Sarmiento fue asesinado durante un ataque armado en su casa, donde también resultó herida su madre. https://t.co/qFNXsMLxZG https://t.co/YbtlMCpjEf</t>
+          <t>Esto somos los Venezolanos! 🇻🇪🩵 https://t.co/lIF9UHXqOC</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1626,31 +1594,31 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5837</v>
+        <v>647</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://t.co/qFNXsMLxZG</t>
+          <t>https://t.co/lIF9UHXqOC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-24 02:28:44.000</t>
+          <t>2025-04-04 19:58:08.000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador retornaron a su país de origen con ayuda de las autoridades ecuatorianas y colombianas, tras haber sido rescatadas el pasado 7 de junio en el cantón Rumiñahui, provincia de Pichincha. https://t.co/aUOGZlMl5m</t>
+          <t>𝗘𝗡 𝗜𝗕𝗔𝗥𝗥𝗔: 5 𝗖𝗜𝗨𝗗𝗔𝗗𝗔𝗡𝗢𝗦 𝗘𝗫𝗧𝗥𝗔𝗡𝗝𝗘𝗥𝗢𝗦 𝗗𝗘𝗣𝗢𝗥𝗧𝗔𝗗𝗢𝗦\n\n#Imbabura 📍La Subsecretaría de Migración del Ministerio del Interior en coordinación con la @PoliciaEcuador  realizó un operativo de Control de Permanencia Migratoria en Ibarra con los siguientes resultados: \n\n➡️En los barrios de Mercado Amazonas, Terminal Terrestre y Parque de la Familia, se verificó la situación migratoria de 30 extranjeros.                                 \n➡️ 5 ciudadanos colombianos deportados, por evadir controles migratorios, según el Art. 143 numeral 1 y 3 de la Ley Orgánica de Movilidad Humana. \n➡️ 5 ciudadanos venezolanos notificados con auto de inicio de deportación\n\nSe realizan controles permanentes para garantizar la seguridad y el cumplimiento de la ley.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador retornaron a su país de origen con ayuda de las autoridades ecuatorianas y colombianas, tras haber sido rescatadas el pasado 7 de junio en el cantón Rumiñahui, provincia de Pichincha. https://t.co/aUOGZlMl5m</t>
+          <t>𝗘𝗡 𝗜𝗕𝗔𝗥𝗥𝗔: 5 𝗖𝗜𝗨𝗗𝗔𝗗𝗔𝗡𝗢𝗦 𝗘𝗫𝗧𝗥𝗔𝗡𝗝𝗘𝗥𝗢𝗦 𝗗𝗘𝗣𝗢𝗥𝗧𝗔𝗗𝗢𝗦 #Imbabura 📍La Subsecretaría de Migración del Ministerio del Interior en coordinación con la @PoliciaEcuador realizó un operativo de Control de Permanencia Migratoria en Ibarra con los siguientes resultados: ➡️En los barrios de Mercado Amazonas, Terminal Terre...</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1666,31 +1634,27 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="I31" t="n">
-        <v>469</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>https://t.co/aUOGZlMl5m</t>
-        </is>
-      </c>
+        <v>29088</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-24 02:05:01.000</t>
+          <t>2025-04-04 19:46:37.000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Este grupo de mujeres venezolanas víctimas de explotación sexual retornó a su país tras ser rescatadas en el cantón Rumiñahui, en Pichincha. Habían sido amenazadas por el 'Tren de Aragua'. https://t.co/jOjt5rNBLS</t>
+          <t>𝗘𝗡 𝗜𝗕𝗔𝗥𝗥𝗥𝗔: 5 𝗖𝗜𝗨𝗗𝗔𝗗𝗔𝗡𝗢𝗦 𝗘𝗫𝗧𝗥𝗔𝗡𝗝𝗘𝗥𝗢𝗦 𝗗𝗘𝗣𝗢𝗥𝗧𝗔𝗗𝗢𝗦\n\n#Imbabura 📍La Subsecretaría de Migración del Ministerio del Interior en coordinación con la @PoliciaEcuador  realizó un operativo de Control de Permanencia Migratoria en Ibarra con los siguientes resultados: \n\n➡️En los barrios de Mercado Amazonas, Terminal Terrestre y Parque de la Familia, se verificó la situación migratoria de 30 extranjeros.                                 \n➡️ 5 ciudadanos colombianos deportados, por evadir controles migratorios, según el Art. 143 numeral 1 y 3 de la Ley Orgánica de Movilidad Humana. \n➡️ 5 ciudadanos venezolanos notificados con auto de inicio de deportación\n\nSe realizan controles permanentes para garantizar la seguridad y el cumplimiento de la ley.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Este grupo de mujeres venezolanas víctimas de explotación sexual retornó a su país tras ser rescatadas en el cantón Rumiñahui, en Pichincha. Habían sido amenazadas por el 'Tren de Aragua'. https://t.co/jOjt5rNBLS</t>
+          <t>𝗘𝗡 𝗜𝗕𝗔𝗥𝗥𝗥𝗔: 5 𝗖𝗜𝗨𝗗𝗔𝗗𝗔𝗡𝗢𝗦 𝗘𝗫𝗧𝗥𝗔𝗡𝗝𝗘𝗥𝗢𝗦 𝗗𝗘𝗣𝗢𝗥𝗧𝗔𝗗𝗢𝗦 #Imbabura 📍La Subsecretaría de Migración del Ministerio del Interior en coordinación con la @PoliciaEcuador realizó un operativo de Control de Permanencia Migratoria en Ibarra con los siguientes resultados: ➡️En los barrios de Mercado Amazonas, Terminal Ter...</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1706,31 +1670,27 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>74.7</v>
+        <v>40.9</v>
       </c>
       <c r="I32" t="n">
-        <v>1451922</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://t.co/jOjt5rNBLS</t>
-        </is>
-      </c>
+        <v>26398</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-24 01:13:19.000</t>
+          <t>2025-04-04 19:33:55.000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador lograron retornar a su país de origen con ayuda de autoridades ecuatorianas y colombianas, informó @MinInteriorEc . Las mujeres fueron rescatadas  el pasado 7 de junio en Rumiñahui, aledaño a Quito. EXPRESO https://t.co/GWiJJmMCBf</t>
+          <t>@DanielNoboaOk señor presidente Con todo el respeto que usted se merece me dirijo ante usted Soy un transportista que día a día nos jugamos la vida en las carreteras solo le quiero pedir un favor no queremos más venezolanos en el Ecuador queremos que sean expulsados</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador lograron retornar a su país de origen con ayuda de autoridades ecuatorianas y colombianas, informó @MinInteriorEc . Las mujeres fueron rescatadas el pasado 7 de junio en Rumiñahui, aledaño a Quito. EXPRESO https://t.co/GWiJJmMCBf</t>
+          <t>@DanielNoboaOk señor presidente Con todo el respeto que usted se merece me dirijo ante usted Soy un transportista que día a día nos jugamos la vida en las carreteras solo le quiero pedir un favor no queremos más venezolanos en el Ecuador queremos que sean expulsados</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1746,31 +1706,27 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30344</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>https://t.co/GWiJJmMCBf</t>
-        </is>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-24 01:12:48.000</t>
+          <t>2025-04-04 17:30:00.000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador lograron retornar a su país de origen con ayuda de autoridades ecuatorianas y colombianas, informó @MinInteriorEc . Las mujeres fueron rescatadas  el pasado 7 de junio en Rumiñahui, aledaño a Quito. EXPRESO https://t.co/cqBwuEej42</t>
+          <t>𝗨𝗻 𝗰𝗶𝘂𝗱𝗮𝗱𝗮𝗻𝗼 𝘃𝗲𝗻𝗲𝘇𝗼𝗹𝗮𝗻𝗼 𝗱𝗲 𝟯𝟯 𝗮𝗻̃𝗼𝘀, 𝗳𝘂𝗲 𝗮𝘀𝗲𝘀𝗶𝗻𝗮𝗱𝗼 𝗮 𝘁𝗶𝗿𝗼𝘀 𝗮𝗳𝘂𝗲𝗿𝗮 𝗱𝗲 𝘂𝗻𝗮 𝗱𝗶𝘀𝗰𝗼𝘁𝗲𝗰𝗮 𝗲𝗻 𝗔𝗿𝗲𝗻𝗶𝗹𝗹𝗮𝘀, 𝗺𝗶𝗲𝗻𝘁𝗿𝗮𝘀 𝗶𝗻𝘁𝗲𝗻𝘁𝗮𝗯𝗮 𝗵𝘂𝗶𝗿 𝗱𝗲 𝘂𝗻 𝗮𝘀𝗮𝗹𝘁𝗼 https://t.co/Mt77e34l8F</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador lograron retornar a su país de origen con ayuda de autoridades ecuatorianas y colombianas, informó @MinInteriorEc . Las mujeres fueron rescatadas el pasado 7 de junio en Rumiñahui, aledaño a Quito. EXPRESO https://t.co/cqBwuEej42</t>
+          <t>𝗨𝗻 𝗰𝗶𝘂𝗱𝗮𝗱𝗮𝗻𝗼 𝘃𝗲𝗻𝗲𝘇𝗼𝗹𝗮𝗻𝗼 𝗱𝗲 𝟯𝟯 𝗮𝗻̃𝗼𝘀, 𝗳𝘂𝗲 𝗮𝘀𝗲𝘀𝗶𝗻𝗮𝗱𝗼 𝗮 𝘁𝗶𝗿𝗼𝘀 𝗮𝗳𝘂𝗲𝗿𝗮 𝗱𝗲 𝘂𝗻𝗮 𝗱𝗶𝘀𝗰𝗼𝘁𝗲𝗰𝗮 𝗲𝗻 𝗔𝗿𝗲𝗻𝗶𝗹𝗹𝗮𝘀, 𝗺𝗶𝗲𝗻𝘁𝗿𝗮𝘀 𝗶𝗻𝘁𝗲𝗻𝘁𝗮𝗯𝗮 𝗵𝘂𝗶𝗿 𝗱𝗲 𝘂𝗻 𝗮𝘀𝗮𝗹𝘁𝗼 https://t.co/Mt77e34l8F</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1786,31 +1742,31 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10513</v>
+        <v>995</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://t.co/cqBwuEej42</t>
+          <t>https://t.co/Mt77e34l8F</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-24 01:09:31.000</t>
+          <t>2025-04-04 16:38:06.000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador regresaron este lunes 23 de junio a su país con ayuda de autoridades ecuatorianas y colombianas, tras ser rescatadas días atrás, informó el Ministerio del Interior. https://t.co/XmdodVfbVh</t>
+          <t>🇪🇨🇻🇪 | Cerca de 10.000 venezolanos en Ecuador no lograron acceder al proceso de regularización migratoria VIRTE II: Este proceso buscaba beneficiar a quienes no obtuvieron visado en la primera fase pero contaban con el Certificado de Registro de Permanencia Migratoria. https://t.co/cG4QTxwhJZ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador regresaron este lunes 23 de junio a su país con ayuda de autoridades ecuatorianas y colombianas, tras ser rescatadas días atrás, informó el Ministerio del Interior. https://t.co/XmdodVfbVh</t>
+          <t>🇪🇨🇻🇪 | Cerca de 10.000 venezolanos en Ecuador no lograron acceder al proceso de regularización migratoria VIRTE II: Este proceso buscaba beneficiar a quienes no obtuvieron visado en la primera fase pero contaban con el Certificado de Registro de Permanencia Migratoria. https://t.co/cG4QTxwhJZ</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1826,31 +1782,31 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>43.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>39511</v>
+        <v>496021</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://t.co/XmdodVfbVh</t>
+          <t>https://t.co/cG4QTxwhJZ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-24 00:53:59.000</t>
+          <t>2025-04-04 16:29:44.000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo \n► https://t.co/uu2U8YWLI0 https://t.co/Ex2pNZWUfM</t>
+          <t>Es increíble cómo gastan plata en este tipo de campañas, hasta en las apps de deportes. Y peor aún, que dado el contexto nacional, se utiliza al migrante (venezolanos en especial) como ejemplo de amenaza o referencia negativa. Estamos podridos como país, como seres humanos. https://t.co/77vLMCdhTX</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo ► https://t.co/uu2U8YWLI0 https://t.co/Ex2pNZWUfM</t>
+          <t>Es increíble cómo gastan plata en este tipo de campañas, hasta en las apps de deportes. Y peor aún, que dado el contexto nacional, se utiliza al migrante (venezolanos en especial) como ejemplo de amenaza o referencia negativa. Estamos podridos como país, como seres humanos. https://t.co/77vLMCdhTX</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1866,31 +1822,31 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>31.7</v>
+        <v>23.8</v>
       </c>
       <c r="I36" t="n">
-        <v>10034</v>
+        <v>1615</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://t.co/uu2U8YWLI0</t>
+          <t>https://t.co/77vLMCdhTX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-24 00:53:48.000</t>
+          <t>2025-04-04 15:48:47.000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo \n► https://t.co/P453Ym4vKo https://t.co/SfnJ7KYdsN</t>
+          <t>En la madrugada de este viernes, 4 de abril, Andrés Rodríguez, un venezolano de 33 años, fue asesinado a balazos en el barrio Central de #Arenillas. \nMas información aquí https://t.co/qpqjKoHl6l https://t.co/ko5t4UvOJX</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo ► https://t.co/P453Ym4vKo https://t.co/SfnJ7KYdsN</t>
+          <t>En la madrugada de este viernes, 4 de abril, Andrés Rodríguez, un venezolano de 33 años, fue asesinado a balazos en el barrio Central de #Arenillas. Mas información aquí https://t.co/qpqjKoHl6l https://t.co/ko5t4UvOJX</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1906,31 +1862,31 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>33677</v>
+        <v>69</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://t.co/P453Ym4vKo</t>
+          <t>https://t.co/qpqjKoHl6l</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-24 00:53:38.000</t>
+          <t>2025-04-04 15:45:14.000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo\n► https://t.co/IQZsSwAu0V https://t.co/OlmtXZ9HWN</t>
+          <t>#Venezolanos | La implementación del proceso de regularización migratoria dependía de financiamiento externo, adujo el Gobierno. https://t.co/yruhVgW3F3 https://t.co/aAlIcUBokH</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo ► https://t.co/IQZsSwAu0V https://t.co/OlmtXZ9HWN</t>
+          <t>#Venezolanos | La implementación del proceso de regularización migratoria dependía de financiamiento externo, adujo el Gobierno. https://t.co/yruhVgW3F3 https://t.co/aAlIcUBokH</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1946,31 +1902,31 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>42.9</v>
+        <v>81.7</v>
       </c>
       <c r="I38" t="n">
-        <v>35212</v>
+        <v>3599648</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://t.co/IQZsSwAu0V</t>
+          <t>https://t.co/yruhVgW3F3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-24 00:52:53.000</t>
+          <t>2025-04-04 14:22:30.000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo\n► https://t.co/8zwl2rlEgn https://t.co/nQwh5kvsXJ</t>
+          <t>🆘.#URGENTE ||\n\n📍La población del sector de Calderón, al norte de #Quito, exige que el gobierno tome medidas emergentes frente a los delincuentes y as3sinos extranjeros, especialmente venezolanos, que se han tomado las calles de la capital.\n\n❌ Supuestos delivery, en motocicleta 🏍️, persiguen a su víctima, quien intenta huir, toma el letrero de una tienda para defenderse; sin embargo, el sujeto lo apuñala en la cabeza hasta que los hijos del mal huyen y el joven queda con el puñal clavado en su cabeza, horas después fallece por la gravedad de las heridas. \n\n🫵🏼 Los vecinos del barrio aseguran que mientras se daba el forcejeo, los delincuentes eran venezolanos.\n\n🤬 ¿Dónde está la ordenanza del @MunicipioQuito que prohíbe a dos 2️⃣ sujetos el ir en una moto?. @PoliciaEcuador \n\n🤬 Son estos supuestos repartidores quienes se han convertido en dueños de las vías, conocen los movimientos de cada barrio, cada sector.\n\n✳️ #SomosLlamingos #SomosTRNoticias</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>#Mundo | La muerte del tiktoker Gabriel Sarmiento se dio mientras transmitía en vivo ► https://t.co/8zwl2rlEgn https://t.co/nQwh5kvsXJ</t>
+          <t>🆘.#URGENTE || 📍La población del sector de Calderón, al norte de #Quito, exige que el gobierno tome medidas emergentes frente a los delincuentes y as3sinos extranjeros, especialmente venezolanos, que se han tomado las calles de la capital. ❌ Supuestos delivery, en motocicleta 🏍️, persiguen a su víctima, quien intenta huir, toma el letrero de u...</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1986,31 +1942,27 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>57.5</v>
+        <v>95</v>
       </c>
       <c r="I39" t="n">
-        <v>206643</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>https://t.co/8zwl2rlEgn</t>
-        </is>
-      </c>
+        <v>498176</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-24 00:51:52.000</t>
+          <t>2025-04-04 14:00:03.000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador regresaron este lunes 23 de junio a su país con ayuda de autoridades ecuatorianas y colombianas, tras ser rescatadas días atrás, informó el Ministerio del Interior.\n\nMás detalles: https://t.co/VBbXO3FoVC https://t.co/EoAgRSHNPW</t>
+          <t>🔍#FactCheckElectoral | ❌ Es FALSO que el gobierno ecuatoriano ofrece 50.000 plazas de empleo a ciudadanos venezolanos.\n\n🤔¿Cómo lo sabemos?\n✅ La Presidencia, el Ministerio de Trabajo y la Cancillería desmintieron esta falsa publicidad.\n✅ No hay evidencia oficial de esta supuesta oferta laboral.\n✅ El anuncio usurpa los colores y el estilo del movimiento ADN e incluye un número telefónico que no corresponde a un proceso de empleo.\n\n⚠️ Lo que sí ocurre: La desinformación sobre migración ha aumentado en este contexto electoral.\n\nTe contamos más en esta verificación: https://t.co/ngOHb6QHmk</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ocho mujeres venezolanas víctimas de explotación sexual en Ecuador regresaron este lunes 23 de junio a su país con ayuda de autoridades ecuatorianas y colombianas, tras ser rescatadas días atrás, informó el Ministerio del Interior. Más detalles: https://t.co/VBbXO3FoVC https://t.co/EoAgRSHNPW</t>
+          <t>🔍#FactCheckElectoral | ❌ Es FALSO que el gobierno ecuatoriano ofrece 50.000 plazas de empleo a ciudadanos venezolanos. 🤔¿Cómo lo sabemos? ✅ La Presidencia, el Ministerio de Trabajo y la Cancillería desmintieron esta falsa publicidad. ✅ No hay evidencia oficial de esta supuesta oferta laboral. ✅ El anuncio usurpa los colores y el estilo del movi...</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2026,31 +1978,31 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="I40" t="n">
-        <v>1219841</v>
+        <v>58324</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://t.co/VBbXO3FoVC</t>
+          <t>https://t.co/ngOHb6QHmk</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-23 22:37:13.000</t>
+          <t>2025-04-04 13:38:08.000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>✈️ 𝗥𝗲𝘁𝗼𝗿𝗻𝗼 𝗮𝘀𝗶𝘀𝘁𝗶𝗱𝗼 𝗱𝗲 8 𝘃í𝗰𝘁𝗶𝗺𝗮𝘀 𝘃𝗲𝗻𝗲𝘇𝗼𝗹𝗮𝗻𝗮𝘀 𝗱𝗲 𝘁𝗿𝗮𝘁𝗮 𝗱𝗲 𝗽𝗲𝗿𝘀𝗼𝗻𝗮𝘀\n\n🚨 Ocho ciudadanas venezolanas, víctimas de trata de personas con fines de explotación sexual, fueron rescatadas el pasado 7 de junio en el cantón Rumiñahui.\n\n➡️ Gracias a la articulación del Ministerio del Interior, a través de la Dirección Contra la Trata de Personas y Tráfico Ilícito de Migrantes, la Policía Nacional, @DDHH_Ec, @ourrescue_latam, organizaciones de la sociedad civil y el Centro Operativo Anti-Trata (COAT) del Ministerio del Interior de Colombia (@MinInterior), se ejecutó con éxito el retorno asistido a su país de origen.\n\n🤝 Este esfuerzo coordinado a nivel nacional e internacional garantiza la protección integral de las víctimas y la restitución de sus derechos.</t>
+          <t>El proceso de regularización migratoria VIRTE II, lanzado en 2024, no tuvo el impacto esperado. Solo se emitieron 4.941 visas, y unas 3.000 más estaban en trámite, lo que representa una baja participación frente a las 96.980 personas elegibles. \n\nExpertos como Eduardo Febres-Cordero consideran que fue un fracaso, con muchas personas fuera del proceso, debido también a la suspensión de financiamiento por parte de EE. UU. Las visas otorgadas podrán renovarse por dos años, pero unas 10.000 personas quedaron fuera del proceso.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>✈️ 𝗥𝗲𝘁𝗼𝗿𝗻𝗼 𝗮𝘀𝗶𝘀𝘁𝗶𝗱𝗼 𝗱𝗲 8 𝘃í𝗰𝘁𝗶𝗺𝗮𝘀 𝘃𝗲𝗻𝗲𝘇𝗼𝗹𝗮𝗻𝗮𝘀 𝗱𝗲 𝘁𝗿𝗮𝘁𝗮 𝗱𝗲 𝗽𝗲𝗿𝘀𝗼𝗻𝗮𝘀 🚨 Ocho ciudadanas venezolanas, víctimas de trata de personas con fines de explotación sexual, fueron rescatadas el pasado 7 de junio en el cantón Rumiñahui. ➡️ Gracias a la articulación del Ministerio del Interior, a través de...</t>
+          <t>El proceso de regularización migratoria VIRTE II, lanzado en 2024, no tuvo el impacto esperado. Solo se emitieron 4.941 visas, y unas 3.000 más estaban en trámite, lo que representa una baja participación frente a las 96.980 personas elegibles. Expertos como Eduardo Febres-Cordero consideran que fue un fracaso, con muchas personas fuera del proc...</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2066,27 +2018,27 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>50.5</v>
+        <v>25.7</v>
       </c>
       <c r="I41" t="n">
-        <v>1029</v>
+        <v>5977</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-23 21:21:49.000</t>
+          <t>2025-04-04 13:00:17.000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>🕊️ Cada 20 de junio conmemoramos el #DíaMundialDelRefugiado.\nDesde la @CancilleriaEc, la Dirección Zonal 8, liderada por la Ec. Desiré Maquilón, junto a Manos Venezolanas, realizó la feria “Tu historia suma, tu presencia importa: Ecuador te acoge” en la @UArtesEc. 🇪🇨🤝 https://t.co/EKc8rPhqre</t>
+          <t>⚽️ #EcuavisaSports | Las selecciones de Ecuador y Venezuela definen en la última jornada de la fase de grupos a uno de los clasificados a las semifinales del Sudamericano sub 17. 📲 https://t.co/OtIPXqqxnx https://t.co/QG94sR0MbP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>🕊️ Cada 20 de junio conmemoramos el #DíaMundialDelRefugiado. Desde la @CancilleriaEc, la Dirección Zonal 8, liderada por la Ec. Desiré Maquilón, junto a Manos Venezolanas, realizó la feria “Tu historia suma, tu presencia importa: Ecuador te acoge” en la @UArtesEc. 🇪🇨🤝 https://t.co/EKc8rPhqre</t>
+          <t>⚽️ #EcuavisaSports | Las selecciones de Ecuador y Venezuela definen en la última jornada de la fase de grupos a uno de los clasificados a las semifinales del Sudamericano sub 17. 📲 https://t.co/OtIPXqqxnx https://t.co/QG94sR0MbP</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2102,31 +2054,31 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>45.7</v>
+        <v>54.4</v>
       </c>
       <c r="I42" t="n">
-        <v>928</v>
+        <v>139183</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://t.co/EKc8rPhqre</t>
+          <t>https://t.co/OtIPXqqxnx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-23 21:21:25.000</t>
+          <t>2025-04-04 12:58:35.000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>✅ Nueva semana de trabajo \n\n🔜 Vinotinto EC \n\n#VamosCity #ElEquipoDeLaCiudad #LigaEcuabet https://t.co/ivj31U5awb</t>
+          <t>#Arenillas | Un ciudadano de nacionalidad venezolana perdió la vida en la madrugada de este viernes 4 de abril en el barrio Central de Arenillas. \n💻 https://t.co/qyZRacvkAV https://t.co/ooEX6WyWV3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>✅ Nueva semana de trabajo 🔜 Vinotinto EC #VamosCity #ElEquipoDeLaCiudad #LigaEcuabet https://t.co/ivj31U5awb</t>
+          <t>#Arenillas | Un ciudadano de nacionalidad venezolana perdió la vida en la madrugada de este viernes 4 de abril en el barrio Central de Arenillas. 💻 https://t.co/qyZRacvkAV https://t.co/ooEX6WyWV3</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2142,31 +2094,31 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>51.1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92772</v>
+        <v>234</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://t.co/ivj31U5awb</t>
+          <t>https://t.co/qyZRacvkAV</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-23 16:02:45.000</t>
+          <t>2025-04-04 12:30:27.000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>La vino a ver estuvo con ella y se va con ella el servicio fue completo 🥹😅\n\nTIKTOK SHOP ATIPA W AOOM \n#ลุคใหม่พร้อมแลนด์xAtipaAoom\n#มีนเบ้บ #meenbabe https://t.co/EQRAUg4oVv</t>
+          <t>Un hombre fue asesinado a tiros la madrugada de este viernes 4 de abril, en el cantón Arenillas. Andrés Rodríguez, un ciudadano venezolano de 33 años, fue atacado en los exteriores de una discoteca en el Barrio Central.\n\nMás información aquí: https://t.co/a2JIMcXJuE https://t.co/4RF5LQNOgQ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La vino a ver estuvo con ella y se va con ella el servicio fue completo 🥹😅 TIKTOK SHOP ATIPA W AOOM #ลุคใหม่พร้อมแลนด์xAtipaAoom #มีนเบ้บ #meenbabe https://t.co/EQRAUg4oVv</t>
+          <t>Un hombre fue asesinado a tiros la madrugada de este viernes 4 de abril, en el cantón Arenillas. Andrés Rodríguez, un ciudadano venezolano de 33 años, fue atacado en los exteriores de una discoteca en el Barrio Central. Más información aquí: https://t.co/a2JIMcXJuE https://t.co/4RF5LQNOgQ</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2182,130 +2134,14 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="I44" t="n">
-        <v>34</v>
+        <v>21177</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://t.co/EQRAUg4oVv</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-06-23 14:27:25.000</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>@EmAseoQuito @pabelml señor Alcalde buenos días le saludo muy afectuosamente para pedirle por favor que nos ayude aquí en la calle Agua Clara y Bartolomé Zamora hay un salón de apuestas donde se reúnen varios Venezolanos pasan bebiendo y la calle es lleno de escupitajos</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>@EmAseoQuito @pabelml señor Alcalde buenos días le saludo muy afectuosamente para pedirle por favor que nos ayude aquí en la calle Agua Clara y Bartolomé Zamora hay un salón de apuestas donde se reúnen varios Venezolanos pasan bebiendo y la calle es lleno de escupitajos</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>291</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-06-23 13:30:39.000</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>¿Sabías que Ecuador está recibiendo pedidos de asilo de venezolanos que viven en Canadá, España y más? El país vuelve a estar en el radar migratorio.\nLee toda la info aquí 👉 https://t.co/BK51mOHNUP #LaVeci\n#Refugiados #AsiloEnEcuador #MigraciónVenezolana https://t.co/E6IYeUlIK3</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>¿Sabías que Ecuador está recibiendo pedidos de asilo de venezolanos que viven en Canadá, España y más? El país vuelve a estar en el radar migratorio. Lee toda la info aquí 👉 https://t.co/BK51mOHNUP #LaVeci #Refugiados #AsiloEnEcuador #MigraciónVenezolana https://t.co/E6IYeUlIK3</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1146</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>https://t.co/BK51mOHNUP</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-06-23 11:47:54.000</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>#LaLigaPro\n@Macara_Oficial  1-0  #VinoTinto https://t.co/bhEVqzssHe</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>#LaLigaPro @Macara_Oficial 1-0 #VinoTinto https://t.co/bhEVqzssHe</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>90528</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>https://t.co/bhEVqzssHe</t>
+          <t>https://t.co/a2JIMcXJuE</t>
         </is>
       </c>
     </row>
